--- a/data/trans_bre/P1418-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.178396961593201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8381232591694824</v>
+        <v>0.838123259169481</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.188441154363118</v>
@@ -649,7 +649,7 @@
         <v>4.176477757103561</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.482342918681371</v>
+        <v>0.4823429186813701</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8305107865486525</v>
+        <v>0.840526973595599</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.602483494770547</v>
+        <v>2.019044287011782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.505851119519763</v>
+        <v>4.422134241091659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.012704241679611</v>
+        <v>-1.029141652111664</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06706099300119892</v>
+        <v>0.09333419162923894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2483109693750432</v>
+        <v>0.342406702335382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.192272088676055</v>
+        <v>1.099408898533195</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3946153213433666</v>
+        <v>-0.4378694568209861</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.132388530332276</v>
+        <v>9.227987653708441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.38401960011616</v>
+        <v>9.690142467284314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.23915495258826</v>
+        <v>12.36032874500551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.596033252094059</v>
+        <v>2.49185609428268</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.504293679796696</v>
+        <v>3.529401551972949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.942266920569612</v>
+        <v>5.248506079522235</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12.55833584839251</v>
+        <v>12.85510733135324</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.22719157533322</v>
+        <v>3.159070207031371</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.983696742880133</v>
+        <v>4.267025528066324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.566621031184713</v>
+        <v>1.306989473046704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.627734287971918</v>
+        <v>0.8802190840318482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.264260373625979</v>
+        <v>1.314198489385167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4762472705563523</v>
+        <v>0.4746359382631454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2467753205058916</v>
+        <v>0.2577049956310994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1134343241442925</v>
+        <v>0.2195003697645382</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3218145674409673</v>
+        <v>0.3311635069749887</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.35582359248671</v>
+        <v>11.6974375378615</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.233167785062294</v>
+        <v>7.04780321633246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.361338501875546</v>
+        <v>5.535715872251374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.565433078186067</v>
+        <v>5.647455696131281</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.556263018423582</v>
+        <v>2.590145191427856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.336238569702393</v>
+        <v>4.719695269238079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.140171617059351</v>
+        <v>5.220631921264107</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.954294114669435</v>
+        <v>4.338023587111161</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0833686532273558</v>
+        <v>0.3193968364186673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.0254055973300458</v>
+        <v>0.09623381527413169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.840024571501382</v>
+        <v>-1.951737668158595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.015742527920569</v>
+        <v>-0.8971331313381341</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.00850173722736754</v>
+        <v>0.03746251075360253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.117508923980018</v>
+        <v>-0.07397561678344666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4398630709970963</v>
+        <v>-0.4580498712716878</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1459680545621491</v>
+        <v>-0.1504580580023508</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.097221106289902</v>
+        <v>7.403311454745297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.963659973009728</v>
+        <v>6.454642438712986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.019691609441447</v>
+        <v>3.827972676177964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.162737953049131</v>
+        <v>5.247287966519834</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.219933398036572</v>
+        <v>3.898138865823055</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.48672481616809</v>
+        <v>2.967875797533094</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.142111621421447</v>
+        <v>2.029785030688737</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.222000835729892</v>
+        <v>1.175841062037986</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.760384165695114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.396922019728983</v>
+        <v>1.396922019728984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.368120158690337</v>
@@ -949,7 +949,7 @@
         <v>1.302334864304089</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3440219722144312</v>
+        <v>0.3440219722144315</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.591302266645997</v>
+        <v>1.457947796326569</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.772204797056419</v>
+        <v>6.021778541025531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1773006143679111</v>
+        <v>0.2334961986795696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.517506510571762</v>
+        <v>-1.533451563501731</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2074539006575139</v>
+        <v>0.2441396177283856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9873441604296102</v>
+        <v>0.9541940487228602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08503339632779884</v>
+        <v>-0.08387666916609929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2648789077524901</v>
+        <v>-0.270395569659353</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.757901725097977</v>
+        <v>7.986309751883189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.37000928038766</v>
+        <v>14.54189807559906</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.749315539115086</v>
+        <v>6.144053014037711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.789402850513511</v>
+        <v>3.972599292122356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.81625469703812</v>
+        <v>3.893943022571744</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.512156051436879</v>
+        <v>5.59393468033462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.516988696910868</v>
+        <v>5.000468594086549</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.615892074378446</v>
+        <v>1.616840160146412</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>12.36940346334879</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>2.654623483674697</v>
+        <v>2.654623483674698</v>
       </c>
     </row>
     <row r="17">
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.471826531848604</v>
+        <v>-0.2140787549350516</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.728877871826128</v>
+        <v>4.966431617207685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.827650036325994</v>
+        <v>3.02690291624034</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.760697793831917</v>
+        <v>4.603689611817126</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.08201248614730865</v>
+        <v>-0.1257105515792467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5188709738146383</v>
+        <v>0.537604975655772</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>1.057865837336344</v>
+        <v>1.06844679036491</v>
       </c>
     </row>
     <row r="18">
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.67530280428984</v>
+        <v>10.97904355643299</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.23434751715173</v>
+        <v>16.92503038553879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.448837419012063</v>
+        <v>9.887383491150022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.87928507186614</v>
+        <v>10.7841677341893</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.257478395797324</v>
+        <v>3.249316236198439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.967161842710841</v>
+        <v>6.125822583164289</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>6.467606359912772</v>
+        <v>6.878926720204009</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>3.099042576977888</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.598995384142949</v>
+        <v>6.598995384142947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.837361591774425</v>
@@ -1145,7 +1145,7 @@
         <v>0.9156516630861701</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8041547679208343</v>
+        <v>0.804154767920834</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.919102870305695</v>
+        <v>2.265617447865353</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.224507413053982</v>
+        <v>1.956568175950508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.7174762270744561</v>
+        <v>-0.4555392491346262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.530290812660898</v>
+        <v>2.749193010551795</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4073495855105935</v>
+        <v>0.3277391625085896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3785208589062651</v>
+        <v>0.2578831613188731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2060942828010122</v>
+        <v>-0.2233741232637415</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2338354624394099</v>
+        <v>0.2787136806083901</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.81070486366968</v>
+        <v>10.93272909771714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.40720731271236</v>
+        <v>10.77418975060551</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.781286158336884</v>
+        <v>7.476757983690187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.39287258287403</v>
+        <v>10.47116279774277</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.544773277310026</v>
+        <v>5.195539802211078</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.135556232753267</v>
+        <v>5.17726619032489</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.316848159626937</v>
+        <v>3.893939994031416</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.509286595111242</v>
+        <v>1.631936257959838</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>7.099949804286821</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.816461504130446</v>
+        <v>9.816461504130443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8896669509558268</v>
@@ -1245,7 +1245,7 @@
         <v>2.192867844299269</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.54066623078638</v>
+        <v>1.540666230786379</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.4241612497387</v>
+        <v>1.160239346859687</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.458696375984847</v>
+        <v>4.436511925051192</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.497341021001732</v>
+        <v>4.395782577823235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.68248232058915</v>
+        <v>6.768234156142483</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2178121949302525</v>
+        <v>0.1727322689384189</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.756800395777666</v>
+        <v>0.8251244636498368</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9606362424877816</v>
+        <v>0.9811788694076524</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7959830084893365</v>
+        <v>0.7925642162754725</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.80286916053668</v>
+        <v>6.867689234089521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.7200127121606</v>
+        <v>10.36190979898745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.918266925820861</v>
+        <v>10.00822771138214</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.64687205938535</v>
+        <v>12.76852061971622</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.85042468381668</v>
+        <v>1.898539530034498</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.718749476283814</v>
+        <v>3.459497406001085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.38588572865189</v>
+        <v>4.394958711463856</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.558448269659424</v>
+        <v>2.580082860167451</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>5.446455126316772</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.004187623378083</v>
+        <v>3.004187623378085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2914500295409987</v>
@@ -1345,7 +1345,7 @@
         <v>2.467907821227897</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.9848587304801247</v>
+        <v>0.9848587304801252</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9343125617680206</v>
+        <v>-0.3973371031750368</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.751741722781752</v>
+        <v>4.753134749000258</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.216242820165783</v>
+        <v>3.250523760212547</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.176199738826973</v>
+        <v>1.268574230226929</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08949636628304748</v>
+        <v>-0.03908411021374156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.111831494242696</v>
+        <v>2.133121990243477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9935450029491268</v>
+        <v>1.00888760861355</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3015342059644913</v>
+        <v>0.2966908880085268</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.650833907216487</v>
+        <v>5.785733820480006</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.911580338016979</v>
+        <v>8.956257991332704</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.828048190169191</v>
+        <v>7.931762941800814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.803123889838795</v>
+        <v>4.758248879666928</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7442094726335623</v>
+        <v>0.7960038072700871</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11.59123548530827</v>
+        <v>11.30990643416247</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.580196114547077</v>
+        <v>5.575795155918657</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.150819142405615</v>
+        <v>2.12338267140857</v>
       </c>
     </row>
     <row r="28">
@@ -1456,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.423952312759858</v>
+        <v>3.390369781274092</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.468859246253692</v>
+        <v>5.47743949904439</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.609289546794796</v>
+        <v>3.69408094350243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.610496776568078</v>
+        <v>3.569450761101485</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5766398584634956</v>
+        <v>0.5554191921367343</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.493970961775427</v>
+        <v>1.548396782033233</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.346756807580446</v>
+        <v>1.351303871030436</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.7700700107344205</v>
+        <v>0.7390101923768541</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.980610133474189</v>
+        <v>5.886691809521658</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.829195675221998</v>
+        <v>7.780121108162732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.755405883982723</v>
+        <v>5.819523184308721</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.549028486487788</v>
+        <v>5.540854906522018</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.228376231554995</v>
+        <v>1.190903813270168</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.947051665438676</v>
+        <v>2.916167243726369</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.85737203402202</v>
+        <v>2.829265830178318</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.519835673892422</v>
+        <v>1.473045112886966</v>
       </c>
     </row>
     <row r="31">
